--- a/session.xlsx
+++ b/session.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training Projects\connect-monogdb-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7547A22-6B64-432D-8A75-A9911815FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B195DB-0502-4825-A180-1A8633E5CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,27 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t> </t>
   </si>
   <si>
-    <t>vsc console</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
     <t>Session Id</t>
-  </si>
-  <si>
-    <t>Database record</t>
-  </si>
-  <si>
-    <t>Frontend session details</t>
-  </si>
-  <si>
-    <t>Single user visited application</t>
   </si>
   <si>
     <t>domainsEnabled</t>
@@ -79,9 +67,6 @@
     <t>2.4.1</t>
   </si>
   <si>
-    <t>Multiple users</t>
-  </si>
-  <si>
     <t>Hello
 "1gK9zYuyf3GOztoSwg15hjuQcpXbc1ou"
 {"cookie":{"originalMaxAge":3600000,"expires":"2022-12-22T12:10:27.269Z","secure":null,"httpOnly":true,"domain":null,"path":"/","sameSite":null}}</t>
@@ -90,31 +75,6 @@
     <t>1gK9zYuyf3GOztoSwg15hjuQcpXbc1ou</t>
   </si>
   <si>
-    <t>{
-  "_id": "1gK9zYuyf3GOztoSwg15hjuQcpXbc1ou",
-  "expires": {
-    "$date": {
-      "$numberLong": "1671711029461"
-    }
-  },
-  "session": {
-    "cookie": {
-      "originalMaxAge": 3600000,
-      "expires": {
-        "$date": {
-          "$numberLong": "1671711029461"
-        }
-      },
-      "secure": null,
-      "httpOnly": true,
-      "domain": null,
-      "path": "/",
-      "sameSite": null
-    }
-  }
-}</t>
-  </si>
-  <si>
     <t>Hello
 "B2-h3jNnt1sNXDX_UFaFMJNUAN_GuuxR"
 {"cookie":{"originalMaxAge":3600000,"expires":"2022-12-22T12:16:31.549Z","secure":null,"httpOnly":true,"domain":null,"path":"/","sameSite":null}}</t>
@@ -123,46 +83,6 @@
     <t>B2-h3jNnt1sNXDX_UFaFMJNUAN_GuuxR</t>
   </si>
   <si>
-    <t>{
-  "_id": "B2-h3jNnt1sNXDX_UFaFMJNUAN_GuuxR",
-  "expires": {
-    "$date": {
-      "$numberLong": "1671711399608"
-    }
-  },
-  "session": {
-    "cookie": {
-      "originalMaxAge": 3600000,
-      "expires": {
-        "$date": {
-          "$numberLong": "1671711399608"
-        }
-      },
-      "secure": null,
-      "httpOnly": true,
-      "domain": null,
-      "path": "/",
-      "sameSite": null
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>User5</t>
-  </si>
-  <si>
     <t>Hello
 "0_VuUcR6P3wimp9hvvYtm0xDw3Byjs9a"
 {"cookie":{"originalMaxAge":3600000,"expires":"2022-12-22T12:20:43.660Z","secure":null,"httpOnly":true,"domain":null,"path":"/","sameSite":null}}</t>
@@ -211,6 +131,63 @@
     <t>Hello
 "wfJ1YRwtlKd7S4lwEisib-wazKKNrk1v"
 {"cookie":{"originalMaxAge":3600000,"expires":"2022-12-22T12:26:22.745Z","secure":null,"httpOnly":true,"domain":null,"path":"/","sameSite":null}}</t>
+  </si>
+  <si>
+    <t>Srno</t>
+  </si>
+  <si>
+    <t>0_VuUcR6P3wimp9hvvYtm0xDw3Byjs9a</t>
+  </si>
+  <si>
+    <t>7w--Wsi44Xb4BPycFQq8ut3-xBxOEGhp</t>
+  </si>
+  <si>
+    <t>TX_whK--VhMvnS201l7X5LaoLC2grQEP</t>
+  </si>
+  <si>
+    <t>zBwXSXqvOtiDYKqMub24rbIfduhaY1OM</t>
+  </si>
+  <si>
+    <t>TRmy9BjmtypT2Xsd1e6xcDdwkWtn6ePk</t>
+  </si>
+  <si>
+    <t>z3GKCyexMsNwwX2WzRqjQwM-lt97Olby</t>
+  </si>
+  <si>
+    <t>ZbvVoWnMnzDQ_EVx1hoDypFYEmMLqAVc</t>
+  </si>
+  <si>
+    <t>QeEYKQhWTRVL85vrDJachpERk8UTgM7X</t>
+  </si>
+  <si>
+    <t>W-xdEHNILr0b8AUjhaBLUwToSdL_N-iQ</t>
+  </si>
+  <si>
+    <t>wfJ1YRwtlKd7S4lwEisib-wazKKNrk1v</t>
+  </si>
+  <si>
+    <t>Single user session check</t>
+  </si>
+  <si>
+    <t>Multiple users session check</t>
+  </si>
+  <si>
+    <t>domain check on route visit</t>
+  </si>
+  <si>
+    <t>domain check after operation</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Frontend/issue</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Route Visit , response on frontend</t>
   </si>
 </sst>
 </file>
@@ -257,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,7 +249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -304,34 +293,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,346 +605,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="38.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="b">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -977,6 +1118,9 @@
     <row r="54" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="55" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="56" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/session.xlsx
+++ b/session.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training Projects\connect-monogdb-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B195DB-0502-4825-A180-1A8633E5CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FB885-C7BF-456A-82BB-0A5151D32FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
   <si>
     <t> </t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>domainsEnabled</t>
-  </si>
-  <si>
-    <t>Connect mongodb session version</t>
   </si>
   <si>
     <t>true/false</t>
@@ -181,20 +178,85 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Frontend/issue</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
     <t>Route Visit , response on frontend</t>
+  </si>
+  <si>
+    <t>Performing read from db</t>
+  </si>
+  <si>
+    <t>Performing write in db</t>
+  </si>
+  <si>
+    <t>Domain check before and after read operation</t>
+  </si>
+  <si>
+    <t>Domain check before and after write operation</t>
+  </si>
+  <si>
+    <t>Database changes</t>
+  </si>
+  <si>
+    <t>Session data inserted in db</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>Field data inserted in db</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>mSYHCZj4ObkAgDWQfnPpKUw7LgHKblp7</t>
+  </si>
+  <si>
+    <t>mSYHCZj4ObkAgDWQfnPpKUw7LgHKblp8</t>
+  </si>
+  <si>
+    <t>mSYHCZj4ObkAgDWQfnPpKUw7LgHKblp9</t>
+  </si>
+  <si>
+    <t>mSYHCZj4ObkAgDWQfnPpKUw7LgHKblp10</t>
+  </si>
+  <si>
+    <t>Hello
+"mSYHCZj4ObkAgDWQfnPpKUw7LgHKblp7"
+{"cookie":{"originalMaxAge":3600000,"expires":"2022-12-26T10:51:44.995Z","secure":null,"httpOnly":true,"domain":null,"path":"/","sameSite":null}}</t>
+  </si>
+  <si>
+    <t>Response on done</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Domain available on frontend</t>
+  </si>
+  <si>
+    <t>Domain available after operation done</t>
+  </si>
+  <si>
+    <t>Domain not-available after operation done</t>
+  </si>
+  <si>
+    <t>Session Check</t>
+  </si>
+  <si>
+    <t>session module version</t>
+  </si>
+  <si>
+    <t>Read results on console and now it will perform write to db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +268,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,6 +285,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,25 +383,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -319,11 +397,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,511 +710,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="36.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="E18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="F18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="49" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1499,18 @@
     <row r="57" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="58" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="59" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
